--- a/data/trans_dic/P16A11-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,3; 14,25</t>
+          <t>8,12; 13,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,92; 19,94</t>
+          <t>12,67; 20,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,35; 16,24</t>
+          <t>9,84; 16,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,36; 23,72</t>
+          <t>17,3; 23,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,81; 13,41</t>
+          <t>6,93; 13,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,1; 13,63</t>
+          <t>5,79; 12,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,22; 13,38</t>
+          <t>6,41; 13,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,2; 13,87</t>
+          <t>9,35; 13,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,49; 12,71</t>
+          <t>8,14; 12,72</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,66; 16,11</t>
+          <t>10,65; 16,18</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,87; 13,68</t>
+          <t>8,74; 13,57</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>14,34; 18,57</t>
+          <t>14,1; 18,36</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,98; 17,0</t>
+          <t>9,77; 16,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,22; 17,03</t>
+          <t>10,11; 16,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,96; 18,17</t>
+          <t>10,95; 18,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,37; 24,32</t>
+          <t>17,11; 24,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,53; 8,8</t>
+          <t>3,65; 9,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,77; 13,89</t>
+          <t>6,36; 13,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,84; 11,18</t>
+          <t>4,81; 11,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,08; 15,13</t>
+          <t>9,88; 15,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,44; 11,83</t>
+          <t>7,29; 11,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,31; 14,12</t>
+          <t>9,5; 14,12</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,67; 13,51</t>
+          <t>8,64; 13,34</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,79; 19,19</t>
+          <t>14,8; 19,13</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,16; 14,93</t>
+          <t>9,26; 14,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,01; 24,71</t>
+          <t>17,59; 24,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,1; 19,43</t>
+          <t>13,16; 19,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,07; 22,18</t>
+          <t>4,76; 22,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,91; 20,29</t>
+          <t>9,51; 20,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,63; 28,57</t>
+          <t>17,44; 27,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,22; 28,49</t>
+          <t>14,06; 28,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,7; 28,41</t>
+          <t>18,84; 28,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,0; 14,96</t>
+          <t>10,0; 14,74</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>18,46; 24,43</t>
+          <t>19,07; 24,9</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,68; 20,55</t>
+          <t>14,3; 20,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,44; 22,54</t>
+          <t>6,54; 22,61</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,32; 18,68</t>
+          <t>14,49; 18,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,28; 21,24</t>
+          <t>16,34; 20,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,59; 20,16</t>
+          <t>15,62; 20,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,99; 23,71</t>
+          <t>19,03; 23,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,51; 16,73</t>
+          <t>11,65; 16,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,56; 13,08</t>
+          <t>8,79; 13,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,63; 13,25</t>
+          <t>8,61; 13,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,09; 66,09</t>
+          <t>15,08; 64,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,92; 17,06</t>
+          <t>13,99; 17,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,79; 17,2</t>
+          <t>13,86; 17,14</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,44; 16,55</t>
+          <t>13,26; 16,43</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,42; 47,29</t>
+          <t>18,53; 50,63</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,75; 16,0</t>
+          <t>8,65; 15,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,84; 21,7</t>
+          <t>14,83; 21,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,27; 20,18</t>
+          <t>14,32; 20,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,93; 23,7</t>
+          <t>16,9; 23,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,59; 17,78</t>
+          <t>11,56; 17,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,11; 28,19</t>
+          <t>22,05; 28,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,52; 22,62</t>
+          <t>16,77; 22,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,57; 28,49</t>
+          <t>17,8; 28,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,45; 16,13</t>
+          <t>11,53; 15,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20,02; 24,76</t>
+          <t>20,1; 24,94</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,54; 20,46</t>
+          <t>16,42; 20,54</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,88; 25,47</t>
+          <t>19,18; 25,57</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,58; 3,69</t>
+          <t>0,59; 3,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,66</t>
+          <t>0,37; 3,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,96</t>
+          <t>0,0; 2,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,35</t>
+          <t>0,37; 3,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,37; 27,06</t>
+          <t>22,1; 26,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>28,9; 34,49</t>
+          <t>28,82; 34,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,85; 30,62</t>
+          <t>24,71; 30,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>26,62; 32,08</t>
+          <t>26,73; 32,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>18,1; 22,05</t>
+          <t>18,32; 22,14</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>23,28; 28,19</t>
+          <t>23,44; 28,3</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>19,63; 24,58</t>
+          <t>19,46; 24,35</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>20,47; 24,88</t>
+          <t>20,48; 24,9</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,42; 13,79</t>
+          <t>11,56; 13,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>15,34; 18,03</t>
+          <t>15,32; 18,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,6; 16,15</t>
+          <t>13,62; 16,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,84; 19,73</t>
+          <t>13,71; 19,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,39; 17,95</t>
+          <t>15,43; 17,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>19,53; 22,35</t>
+          <t>19,5; 22,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,5; 19,32</t>
+          <t>16,3; 19,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,89; 38,3</t>
+          <t>19,94; 39,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,82; 15,54</t>
+          <t>13,84; 15,54</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>17,84; 19,65</t>
+          <t>17,86; 19,74</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>15,49; 17,3</t>
+          <t>15,39; 17,26</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,66; 29,81</t>
+          <t>18,53; 30,33</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>51318</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>71151</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>53311</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>103428</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>30525</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>28644</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>32725</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>50847</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>81843</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>99795</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>86037</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>154275</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>38487; 65611</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>55401; 89591</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>42235; 69133</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>87403; 120310</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>21264; 41636</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>18212; 39983</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>22230; 46472</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>41839; 62476</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>63561; 99263</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>80049; 121593</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>67841; 105351</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>134308; 174937</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>47491</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>54979</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>53508</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>93459</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>21254</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>32121</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>27806</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>47499</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>68745</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>87100</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>81314</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>140958</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>35847; 61010</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>42151; 69140</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>41318; 68958</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>77203; 110440</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>13591; 33632</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>21328; 44806</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>17904; 41236</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>37817; 57579</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>53830; 85527</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>71449; 106255</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>64726; 100010</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>123460; 159555</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>63773</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>133268</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>84379</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>90055</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>23545</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>57831</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>34549</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>38949</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>87318</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>191099</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>118927</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>129004</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>50252; 80438</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>110528; 154469</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>68694; 100401</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>31836; 148034</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15961; 33800</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>44789; 71698</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>23364; 46716</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>31441; 48152</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>71035; 104703</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>168830; 220387</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>98357; 139705</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>54661; 188865</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>203012</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>213132</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>205667</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>220540</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>98994</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>82486</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>88685</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>325968</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>302006</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>295619</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>294352</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>546508</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>179478; 226633</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>189244; 242921</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>179555; 230516</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>196957; 243798</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>83185; 118050</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>67400; 101179</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>71085; 108815</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>147372; 625686</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>273161; 337536</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>266722; 329948</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>262028; 324640</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>372860; 1018769</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>555</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>42332</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>92865</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>105730</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>94128</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>82810</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>190204</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>144655</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>206402</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>125143</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>283068</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>250385</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>300531</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>30247; 55436</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>75723; 111656</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>88887; 124364</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>80121; 111850</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>65725; 100301</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>167418; 216166</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>123767; 169043</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>149354; 238759</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>105846; 145124</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>255291; 316675</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>223153; 279136</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>251881; 335695</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4720</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3960</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>993</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2882</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>306256</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>348238</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>297767</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>223465</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>310976</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>352198</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>298760</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>226346</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>1769; 10676</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>996; 10006</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6036</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>888; 7352</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>275919; 335540</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>318851; 379797</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>267371; 328583</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>203211; 244452</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>283430; 342547</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>321567; 388253</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>266403; 333456</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>204952; 249119</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>846</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>686</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1368</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>967</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1204</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1035</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>2214</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>412647</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>569354</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>503588</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>604492</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>563384</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>739524</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>626187</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>893130</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>976031</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1308877</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1129775</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1497622</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>377788; 450248</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>523494; 615583</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>461185; 544036</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>462596; 668663</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>521125; 605210</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>689966; 792644</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>575732; 672363</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>712545; 1395965</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>919745; 1032662</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1241991; 1373300</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1064385; 1193664</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1287620; 2107594</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16A11-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
